--- a/12-J8-energie-nucleaire/datass.xlsx
+++ b/12-J8-energie-nucleaire/datass.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve">CROCUS</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t xml:space="preserve">temps [s]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C</t>
   </si>
 </sst>
 </file>
@@ -70,6 +73,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -129,8 +133,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -260,137 +268,156 @@
   <dimension ref="B2:J10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J4" activeCellId="0" sqref="J4"/>
+      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="B6:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="14.3"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>0.02</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3" s="1" t="n">
         <v>0.01</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="H3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="I3" s="1" t="n">
         <v>0.1</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="J3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="G5" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="1" t="n">
         <v>920</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="1" t="n">
         <v>0.3</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6" s="1" t="n">
         <v>0.02</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6" s="1" t="n">
         <v>391.62</v>
       </c>
+      <c r="G6" s="0" t="n">
+        <f aca="false">E6/F6</f>
+        <v>25.5502783310352</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="1" t="n">
         <v>930</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" s="1" t="n">
         <v>0.42</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7" s="1" t="n">
         <v>0.02</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7" s="1" t="n">
         <v>10010</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7" s="1" t="n">
         <v>279.85</v>
       </c>
+      <c r="G7" s="0" t="n">
+        <f aca="false">E7/F7</f>
+        <v>35.7691620510988</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="1" t="n">
         <v>938.3</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8" s="1" t="n">
         <v>0.67</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8" s="1" t="n">
         <v>0.02</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8" s="1" t="n">
         <v>10002</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8" s="1" t="n">
         <v>188.29</v>
       </c>
+      <c r="G8" s="0" t="n">
+        <f aca="false">E8/F8</f>
+        <v>53.1201869456689</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="1" t="n">
         <v>943.1</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9" s="1" t="n">
         <v>1.1</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9" s="1" t="n">
         <v>0.2</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9" s="1" t="n">
         <v>10015</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9" s="1" t="n">
         <v>126.91</v>
       </c>
+      <c r="G9" s="0" t="n">
+        <f aca="false">E9/F9</f>
+        <v>78.9141911590891</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="1" t="n">
         <v>951</v>
       </c>
     </row>
